--- a/VueReact/Vuejs/vue01docs/Vue정리-202000606.xlsx
+++ b/VueReact/Vuejs/vue01docs/Vue정리-202000606.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="24240" windowHeight="12780" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="36" windowWidth="24240" windowHeight="12780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -795,6 +795,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>npdtmc^2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스의 속성을 배운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트의 속성을 배운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 컴포넌트의 속성을 배운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Vue.component('global-component', {
     name : "",
@@ -822,32 +842,17 @@
       </rPr>
       <t xml:space="preserve">
     template: `&lt;div&gt;전역&lt;/div&gt;`,
-    methods: { },
+    methods: { 
+        methods: {
+            addCounter: function(event){
+            }
+        },
+},
     computed: { },
     components : { },
     watch: { },  
 });</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npdtmc^2w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스의 속성을 배운다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트의 속성을 배운다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 컴포넌트의 속성을 배운다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3871,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4122,8 +4127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.09765625" defaultRowHeight="14.4"/>
@@ -4137,17 +4142,17 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4169,13 +4174,13 @@
         <v>121</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="316.8">
@@ -4183,7 +4188,7 @@
         <v>127</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>133</v>
@@ -4394,7 +4399,7 @@
         <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="158.4">
